--- a/inst/aggregation_tables/industry_aggregations.xlsx
+++ b/inst/aggregation_tables/industry_aggregations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/CLPFUDecompositionDatabase/inst/aggregation_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0693BB29-8AFC-BD4A-9ACA-5B38AB9604BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E185EE-74A3-F247-98C3-97A1DC310C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{6196F350-644F-294F-9730-D810A8B27C87}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inst/aggregation_tables/industry_aggregations.xlsx
+++ b/inst/aggregation_tables/industry_aggregations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/CLPFUDecompositionDatabase/inst/aggregation_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E185EE-74A3-F247-98C3-97A1DC310C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF5BB08-54A5-FA44-BCBD-AB044650E7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{6196F350-644F-294F-9730-D810A8B27C87}"/>
+    <workbookView xWindow="13580" yWindow="3220" windowWidth="17060" windowHeight="17440" activeTab="1" xr2:uid="{6196F350-644F-294F-9730-D810A8B27C87}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
   <si>
     <t>Few</t>
   </si>
@@ -53,9 +53,6 @@
     <t>This file contains aggregations that we want to make</t>
   </si>
   <si>
-    <t>across the CL-PFU database before condusgint decomposition analyses.</t>
-  </si>
-  <si>
     <t>--- Matthew Kuperus Heun and Zeus Guevara, 2 October 2023</t>
   </si>
   <si>
@@ -66,6 +63,45 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>across the CL-PFU database before conducting decomposition analyses.</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Coke ovens</t>
+  </si>
+  <si>
+    <t>Blast furnaces</t>
+  </si>
+  <si>
+    <t>Gas works</t>
+  </si>
+  <si>
+    <t>Iron industry</t>
+  </si>
+  <si>
+    <t>Renewable electricity</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>Transfers</t>
+  </si>
+  <si>
+    <t>Oil refineries</t>
+  </si>
+  <si>
+    <t>Solar photovoltaics</t>
   </si>
 </sst>
 </file>
@@ -430,7 +466,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,12 +478,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -457,10 +493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0C3702-3414-2F44-9243-E3F7D770C663}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C20" sqref="C20:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,10 +507,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -485,10 +521,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -499,16 +535,366 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2015</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2015</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>2002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>2003</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>2004</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>2005</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>2006</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>2007</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>2008</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>2000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>2001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>2002</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>2003</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>2004</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>2005</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>2006</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2007</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>2008</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/inst/aggregation_tables/industry_aggregations.xlsx
+++ b/inst/aggregation_tables/industry_aggregations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/CLPFUDecompositionDatabase/inst/aggregation_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF5BB08-54A5-FA44-BCBD-AB044650E7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A21E9-4D48-184A-B9A1-3AB412F6409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13580" yWindow="3220" windowWidth="17060" windowHeight="17440" activeTab="1" xr2:uid="{6196F350-644F-294F-9730-D810A8B27C87}"/>
   </bookViews>
